--- a/shares.xlsx
+++ b/shares.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicorvinus-my.sharepoint.com/personal/andras_salamon_stud_uni-corvinus_hu/Documents/Dokumentumok/asuli/9 félév/bizonytalansag/ppa/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_68E1F79F5B005AAE5C71FE914A5ED87656CD1AAC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7A279C1-9C3E-4856-BB8B-6A0D628F418E}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -55,11 +49,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,9 +64,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,23 +110,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -419,17 +406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +547,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -571,7 +555,7 @@
         <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.10071457798799099</v>
+        <v>0.100714577987991</v>
       </c>
       <c r="D2">
         <v>0.1009751747325785</v>
@@ -610,13 +594,13 @@
         <v>0.1104212294402537</v>
       </c>
       <c r="P2">
-        <v>0.11080458461329309</v>
+        <v>0.1108045846132931</v>
       </c>
       <c r="Q2">
         <v>0.1117962222508903</v>
       </c>
       <c r="R2">
-        <v>0.11315895594739769</v>
+        <v>0.1131589559473977</v>
       </c>
       <c r="S2">
         <v>0.1137719230970153</v>
@@ -631,13 +615,13 @@
         <v>0.1133816241258884</v>
       </c>
       <c r="W2">
-        <v>0.11412912022346269</v>
+        <v>0.1141291202234627</v>
       </c>
       <c r="X2">
         <v>0.1129549789468272</v>
       </c>
       <c r="Y2">
-        <v>0.11204625216082401</v>
+        <v>0.112046252160824</v>
       </c>
       <c r="Z2">
         <v>0.1109338637894495</v>
@@ -646,10 +630,10 @@
         <v>0.1104629052415335</v>
       </c>
       <c r="AB2">
-        <v>0.11048635257100919</v>
+        <v>0.1104863525710092</v>
       </c>
       <c r="AC2">
-        <v>0.11051472346311129</v>
+        <v>0.1105147234631113</v>
       </c>
       <c r="AD2">
         <v>0.1101360588189083</v>
@@ -661,7 +645,7 @@
         <v>0.1104671179031054</v>
       </c>
       <c r="AG2">
-        <v>0.10923817948547811</v>
+        <v>0.1092381794854781</v>
       </c>
       <c r="AH2">
         <v>0.1081140292267649</v>
@@ -670,13 +654,13 @@
         <v>0.1084155441092642</v>
       </c>
       <c r="AJ2">
-        <v>0.10769976715236559</v>
+        <v>0.1076997671523656</v>
       </c>
       <c r="AK2">
         <v>0.1071650386214105</v>
       </c>
       <c r="AL2">
-        <v>0.10760244008737301</v>
+        <v>0.107602440087373</v>
       </c>
       <c r="AM2">
         <v>0.1074106532803198</v>
@@ -685,7 +669,7 @@
         <v>0.1076643270497642</v>
       </c>
       <c r="AO2">
-        <v>0.10771634619846129</v>
+        <v>0.1077163461984613</v>
       </c>
       <c r="AP2">
         <v>0.1066132379699164</v>
@@ -697,7 +681,7 @@
         <v>0.1049377834976216</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -711,7 +695,7 @@
         <v>0.1104129204141337</v>
       </c>
       <c r="E3">
-        <v>0.10682134738112729</v>
+        <v>0.1068213473811273</v>
       </c>
       <c r="F3">
         <v>0.1079340992572376</v>
@@ -735,7 +719,7 @@
         <v>0.110496251938733</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -749,13 +733,13 @@
         <v>0.1023389353449993</v>
       </c>
       <c r="E4">
-        <v>9.9047285900994972E-2</v>
+        <v>0.09904728590099497</v>
       </c>
       <c r="F4">
         <v>0.1001921952019094</v>
       </c>
       <c r="G4">
-        <v>0.10098330006393109</v>
+        <v>0.1009833000639311</v>
       </c>
       <c r="H4">
         <v>0.1007561661658619</v>
@@ -770,13 +754,13 @@
         <v>0.1018853994755408</v>
       </c>
       <c r="L4">
-        <v>0.10288580952556151</v>
+        <v>0.1028858095255615</v>
       </c>
       <c r="M4">
-        <v>0.10724775143947771</v>
+        <v>0.1072477514394777</v>
       </c>
       <c r="N4">
-        <v>0.10843290137072201</v>
+        <v>0.108432901370722</v>
       </c>
       <c r="O4">
         <v>0.108291270427811</v>
@@ -794,7 +778,7 @@
         <v>0.1065628055119411</v>
       </c>
       <c r="T4">
-        <v>0.10609194926920371</v>
+        <v>0.1060919492692037</v>
       </c>
       <c r="U4">
         <v>0.1060982129691716</v>
@@ -821,7 +805,7 @@
         <v>0.1044416763588345</v>
       </c>
       <c r="AC4">
-        <v>0.10449936777069189</v>
+        <v>0.1044993677706919</v>
       </c>
       <c r="AD4">
         <v>0.1043176149647219</v>
@@ -842,7 +826,7 @@
         <v>0.1029357316866067</v>
       </c>
       <c r="AJ4">
-        <v>0.10231251812200989</v>
+        <v>0.1023125181220099</v>
       </c>
       <c r="AK4">
         <v>0.1018604267025572</v>
@@ -863,18 +847,18 @@
         <v>0.1022592063491447</v>
       </c>
       <c r="AQ4">
-        <v>0.10193829337814921</v>
+        <v>0.1019382933781492</v>
       </c>
       <c r="AR4">
-        <v>0.10089481411512941</v>
+        <v>0.1008948141151294</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.10403084999999999</v>
+        <v>0.10403085</v>
       </c>
       <c r="C5">
         <v>0.1048145576718464</v>
@@ -901,7 +885,7 @@
         <v>0.104846024613884</v>
       </c>
       <c r="K5">
-        <v>0.10467427862668489</v>
+        <v>0.1046742786266849</v>
       </c>
       <c r="L5">
         <v>0.1056833968631407</v>
@@ -919,7 +903,7 @@
         <v>0.1117918058784267</v>
       </c>
       <c r="Q5">
-        <v>0.11284874477197079</v>
+        <v>0.1128487447719708</v>
       </c>
       <c r="R5">
         <v>0.1086701862306656</v>
@@ -928,7 +912,7 @@
         <v>0.1093783088461891</v>
       </c>
       <c r="T5">
-        <v>0.10885793569486089</v>
+        <v>0.1088579356948609</v>
       </c>
       <c r="U5">
         <v>0.1088697588653546</v>
@@ -940,13 +924,13 @@
         <v>0.1100953549444548</v>
       </c>
       <c r="X5">
-        <v>0.10900198508345629</v>
+        <v>0.1090019850834563</v>
       </c>
       <c r="Y5">
         <v>0.1082513882745078</v>
       </c>
       <c r="Z5">
-        <v>0.10723051702169439</v>
+        <v>0.1072305170216944</v>
       </c>
       <c r="AA5">
         <v>0.1069396727644765</v>
@@ -964,180 +948,180 @@
         <v>0.1070901140148133</v>
       </c>
       <c r="AF5">
-        <v>0.10731250960352789</v>
+        <v>0.1073125096035279</v>
       </c>
       <c r="AG5">
-        <v>0.10615467054583901</v>
+        <v>0.106154670545839</v>
       </c>
       <c r="AH5">
-        <v>0.10509256279834001</v>
+        <v>0.10509256279834</v>
       </c>
       <c r="AI5">
         <v>0.1054985166136015</v>
       </c>
       <c r="AJ5">
-        <v>0.10484799360960689</v>
+        <v>0.1048479936096069</v>
       </c>
       <c r="AK5">
-        <v>0.10438331357349689</v>
+        <v>0.1043833135734969</v>
       </c>
       <c r="AL5">
         <v>0.1048093612376083</v>
       </c>
       <c r="AM5">
-        <v>0.10462255271612191</v>
+        <v>0.1046225527161219</v>
       </c>
       <c r="AN5">
-        <v>0.10486964177578099</v>
+        <v>0.104869641775781</v>
       </c>
       <c r="AO5">
-        <v>0.10492031064297989</v>
+        <v>0.1049203106429799</v>
       </c>
       <c r="AP5">
-        <v>0.10384583622849761</v>
+        <v>0.1038458362284976</v>
       </c>
       <c r="AQ5">
-        <v>0.10336335800195159</v>
+        <v>0.1033633580019516</v>
       </c>
       <c r="AR5">
         <v>0.1022138721867778</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.29454570000000002</v>
+        <v>0.2945457</v>
       </c>
       <c r="C6">
-        <v>0.29689187158021141</v>
+        <v>0.2968918715802114</v>
       </c>
       <c r="D6">
         <v>0.2974071299234255</v>
       </c>
       <c r="E6">
-        <v>0.28784104848180608</v>
+        <v>0.2878410484818061</v>
       </c>
       <c r="F6">
-        <v>0.29116757842220459</v>
+        <v>0.2911675784222046</v>
       </c>
       <c r="G6">
-        <v>0.29323407605458568</v>
+        <v>0.2932340760545857</v>
       </c>
       <c r="H6">
-        <v>0.29257524523999262</v>
+        <v>0.2925752452399926</v>
       </c>
       <c r="I6">
-        <v>0.29550341284796311</v>
+        <v>0.2955034128479631</v>
       </c>
       <c r="J6">
-        <v>0.29650335072238282</v>
+        <v>0.2965033507223828</v>
       </c>
       <c r="K6">
-        <v>0.29602281986025791</v>
+        <v>0.2960228198602579</v>
       </c>
       <c r="L6">
-        <v>0.29893545687772721</v>
+        <v>0.2989354568777272</v>
       </c>
       <c r="M6">
-        <v>0.27030835439597672</v>
+        <v>0.2703083543959767</v>
       </c>
       <c r="N6">
-        <v>0.27324473169332902</v>
+        <v>0.273244731693329</v>
       </c>
       <c r="O6">
-        <v>0.27276555754712439</v>
+        <v>0.2727655575471244</v>
       </c>
       <c r="P6">
-        <v>0.27411558371436417</v>
+        <v>0.2741155837143642</v>
       </c>
       <c r="Q6">
-        <v>0.27667105490205818</v>
+        <v>0.2766710549020582</v>
       </c>
       <c r="R6">
-        <v>0.26641706794215131</v>
+        <v>0.2664170679421513</v>
       </c>
       <c r="S6">
-        <v>0.26795921339412798</v>
+        <v>0.267959213394128</v>
       </c>
       <c r="T6">
-        <v>0.26675170290043032</v>
+        <v>0.2667517029004303</v>
       </c>
       <c r="U6">
-        <v>0.26657399264937159</v>
+        <v>0.2665739926493716</v>
       </c>
       <c r="V6">
-        <v>0.26766723972857481</v>
+        <v>0.2676672397285748</v>
       </c>
       <c r="W6">
-        <v>0.26950869047316112</v>
+        <v>0.2695086904731611</v>
       </c>
       <c r="X6">
-        <v>0.26694630300991379</v>
+        <v>0.2669463030099138</v>
       </c>
       <c r="Y6">
-        <v>0.26501421782184642</v>
+        <v>0.2650142178218464</v>
       </c>
       <c r="Z6">
-        <v>0.26254431946681672</v>
+        <v>0.2625443194668167</v>
       </c>
       <c r="AA6">
-        <v>0.26163245880504188</v>
+        <v>0.2616324588050419</v>
       </c>
       <c r="AB6">
-        <v>0.26183667009360012</v>
+        <v>0.2618366700936001</v>
       </c>
       <c r="AC6">
         <v>0.2619990190572502</v>
       </c>
       <c r="AD6">
-        <v>0.26159358273216399</v>
+        <v>0.261593582732164</v>
       </c>
       <c r="AE6">
-        <v>0.26208883793190207</v>
+        <v>0.2620888379319021</v>
       </c>
       <c r="AF6">
         <v>0.2625479945150101</v>
       </c>
       <c r="AG6">
-        <v>0.25975079019102321</v>
+        <v>0.2597507901910232</v>
       </c>
       <c r="AH6">
-        <v>0.25708031238479317</v>
+        <v>0.2570803123847932</v>
       </c>
       <c r="AI6">
-        <v>0.25801791186519402</v>
+        <v>0.258017911865194</v>
       </c>
       <c r="AJ6">
-        <v>0.25639765327342962</v>
+        <v>0.2563976532734296</v>
       </c>
       <c r="AK6">
-        <v>0.25522680852794799</v>
+        <v>0.255226808527948</v>
       </c>
       <c r="AL6">
-        <v>0.25635193229032333</v>
+        <v>0.2563519322903233</v>
       </c>
       <c r="AM6">
-        <v>0.25599716607934209</v>
+        <v>0.2559971660793421</v>
       </c>
       <c r="AN6">
-        <v>0.25715132542359709</v>
+        <v>0.2571513254235971</v>
       </c>
       <c r="AO6">
-        <v>0.25749709117081632</v>
+        <v>0.2574970911708163</v>
       </c>
       <c r="AP6">
-        <v>0.25555638198635439</v>
+        <v>0.2555563819863544</v>
       </c>
       <c r="AQ6">
-        <v>0.25445456848229098</v>
+        <v>0.254454568482291</v>
       </c>
       <c r="AR6">
-        <v>0.25215922484672387</v>
+        <v>0.2521592248467239</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1151,7 +1135,7 @@
         <v>0.1041674140040918</v>
       </c>
       <c r="E7">
-        <v>0.10081660916581831</v>
+        <v>0.1008166091658183</v>
       </c>
       <c r="F7">
         <v>0.1019807094595651</v>
@@ -1166,7 +1150,7 @@
         <v>0.1035817675181841</v>
       </c>
       <c r="J7">
-        <v>0.10389280262158521</v>
+        <v>0.1038928026215852</v>
       </c>
       <c r="K7">
         <v>0.1037351797466432</v>
@@ -1187,7 +1171,7 @@
         <v>0.1106955644340829</v>
       </c>
       <c r="Q7">
-        <v>0.11174458267558179</v>
+        <v>0.1117445826755818</v>
       </c>
       <c r="R7">
         <v>0.1076025637564669</v>
@@ -1205,49 +1189,49 @@
         <v>0.1081705689669387</v>
       </c>
       <c r="W7">
-        <v>0.10892304679884141</v>
+        <v>0.1089230467988414</v>
       </c>
       <c r="X7">
-        <v>0.10784151043782141</v>
+        <v>0.1078415104378214</v>
       </c>
       <c r="Y7">
-        <v>0.10707097581970521</v>
+        <v>0.1070709758197052</v>
       </c>
       <c r="Z7">
         <v>0.106084006955434</v>
       </c>
       <c r="AA7">
-        <v>0.10572754461750331</v>
+        <v>0.1057275446175033</v>
       </c>
       <c r="AB7">
         <v>0.1058617882767538</v>
       </c>
       <c r="AC7">
-        <v>0.10601823714309599</v>
+        <v>0.106018237143096</v>
       </c>
       <c r="AD7">
         <v>0.1058367030675012</v>
       </c>
       <c r="AE7">
-        <v>0.10603523065281401</v>
+        <v>0.106035230652814</v>
       </c>
       <c r="AF7">
-        <v>0.10626295752488241</v>
+        <v>0.1062629575248824</v>
       </c>
       <c r="AG7">
         <v>0.1051164653453325</v>
       </c>
       <c r="AH7">
-        <v>0.10407003903886899</v>
+        <v>0.104070039038869</v>
       </c>
       <c r="AI7">
-        <v>0.10446660457362129</v>
+        <v>0.1044666045736213</v>
       </c>
       <c r="AJ7">
         <v>0.1038154269531632</v>
       </c>
       <c r="AK7">
-        <v>0.10333185944135349</v>
+        <v>0.1033318594413535</v>
       </c>
       <c r="AL7">
         <v>0.1038215188731263</v>
@@ -1256,7 +1240,7 @@
         <v>0.1036779175621315</v>
       </c>
       <c r="AN7">
-        <v>0.10443180274764841</v>
+        <v>0.1044318027476484</v>
       </c>
       <c r="AO7">
         <v>0.1045584616014535</v>
@@ -1265,18 +1249,18 @@
         <v>0.1038465861548417</v>
       </c>
       <c r="AQ7">
-        <v>0.10336773002002821</v>
+        <v>0.1033677300200282</v>
       </c>
       <c r="AR7">
         <v>0.1022645930223732</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.10055397000000001</v>
+        <v>0.10055397</v>
       </c>
       <c r="C8">
         <v>0.1013088443554092</v>
@@ -1285,19 +1269,19 @@
         <v>0.1016075216668238</v>
       </c>
       <c r="E8">
-        <v>9.833772978088394E-2</v>
+        <v>0.09833772978088394</v>
       </c>
       <c r="F8">
-        <v>9.9469492986091285E-2</v>
+        <v>0.09946949298609128</v>
       </c>
       <c r="G8">
         <v>0.1002690556949256</v>
       </c>
       <c r="H8">
-        <v>9.9924196575130589E-2</v>
+        <v>0.09992419657513059</v>
       </c>
       <c r="I8">
-        <v>0.10103144758135291</v>
+        <v>0.1010314475813529</v>
       </c>
       <c r="J8">
         <v>0.1013334623222161</v>
@@ -1315,7 +1299,7 @@
         <v>0.1076129970552477</v>
       </c>
       <c r="O8">
-        <v>0.10743509304863851</v>
+        <v>0.1074350930486385</v>
       </c>
       <c r="P8">
         <v>0.1079236413117033</v>
@@ -1333,10 +1317,10 @@
         <v>0.1051182874768065</v>
       </c>
       <c r="U8">
-        <v>0.10509882692643981</v>
+        <v>0.1050988269264398</v>
       </c>
       <c r="V8">
-        <v>0.10567348458773709</v>
+        <v>0.1056734845877371</v>
       </c>
       <c r="W8">
         <v>0.1064069767140623</v>
@@ -1357,7 +1341,7 @@
         <v>0.1036823811194748</v>
       </c>
       <c r="AC8">
-        <v>0.10372133173771229</v>
+        <v>0.1037213317377123</v>
       </c>
       <c r="AD8">
         <v>0.1034891220653044</v>
@@ -1366,13 +1350,13 @@
         <v>0.1036818332017298</v>
       </c>
       <c r="AF8">
-        <v>0.10393185296099521</v>
+        <v>0.1039318529609952</v>
       </c>
       <c r="AG8">
-        <v>0.10280898897402301</v>
+        <v>0.102808988974023</v>
       </c>
       <c r="AH8">
-        <v>0.10179445652018219</v>
+        <v>0.1017944565201822</v>
       </c>
       <c r="AI8">
         <v>0.1021829326793998</v>
@@ -1381,7 +1365,7 @@
         <v>0.1015564641798743</v>
       </c>
       <c r="AK8">
-        <v>0.10109488108340441</v>
+        <v>0.1010948810834044</v>
       </c>
       <c r="AL8">
         <v>0.1015504329467275</v>
@@ -1390,7 +1374,7 @@
         <v>0.1013823850604097</v>
       </c>
       <c r="AN8">
-        <v>0.10207404985906569</v>
+        <v>0.1020740498590657</v>
       </c>
       <c r="AO8">
         <v>0.1025384715287746</v>
@@ -1405,57 +1389,57 @@
         <v>0.1004034230675732</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8.7139359999999902E-2</v>
+        <v>0.0871393599999999</v>
       </c>
       <c r="C9">
-        <v>8.020844533633685E-2</v>
+        <v>0.08020844533633685</v>
       </c>
       <c r="D9">
-        <v>7.7991590022248633E-2</v>
+        <v>0.07799159002224863</v>
       </c>
       <c r="E9">
         <v>0.1037181632125275</v>
       </c>
       <c r="F9">
-        <v>9.3592296480592266E-2</v>
+        <v>0.09359229648059227</v>
       </c>
       <c r="G9">
-        <v>8.6669188293272914E-2</v>
+        <v>0.08666918829327291</v>
       </c>
       <c r="H9">
-        <v>8.8923879155249047E-2</v>
+        <v>0.08892387915524905</v>
       </c>
       <c r="I9">
-        <v>7.9850399959886714E-2</v>
+        <v>0.07985039995988671</v>
       </c>
       <c r="J9">
-        <v>7.7022572136972139E-2</v>
+        <v>0.07702257213697214</v>
       </c>
       <c r="K9">
-        <v>7.879240697189685E-2</v>
+        <v>0.07879240697189685</v>
       </c>
       <c r="L9">
-        <v>6.9942585209570432E-2</v>
+        <v>0.06994258520957043</v>
       </c>
       <c r="M9">
-        <v>9.8340104826664859E-2</v>
+        <v>0.09834010482666486</v>
       </c>
       <c r="N9">
-        <v>8.854693355186069E-2</v>
+        <v>0.08854693355186069</v>
       </c>
       <c r="O9">
-        <v>9.0095404898370174E-2</v>
+        <v>0.09009540489837017</v>
       </c>
       <c r="P9">
-        <v>8.5724284793662384E-2</v>
+        <v>0.08572428479366238</v>
       </c>
       <c r="Q9">
-        <v>7.7172970801992091E-2</v>
+        <v>0.07717297080199209</v>
       </c>
       <c r="R9">
         <v>0.1057048714091661</v>
@@ -1464,7 +1448,7 @@
         <v>0.1001944591654958</v>
       </c>
       <c r="T9">
-        <v>0.10446066623118069</v>
+        <v>0.1044606662311807</v>
       </c>
       <c r="U9">
         <v>0.1046117245709192</v>
@@ -1473,13 +1457,13 @@
         <v>0.1006729827661437</v>
       </c>
       <c r="W9">
-        <v>9.4519778065665042E-2</v>
+        <v>0.09451977806566504</v>
       </c>
       <c r="X9">
         <v>0.103498253715751</v>
       </c>
       <c r="Y9">
-        <v>0.10992935006652731</v>
+        <v>0.1099293500665273</v>
       </c>
       <c r="Z9">
         <v>0.1180898437719405</v>
@@ -1488,7 +1472,7 @@
         <v>0.1207268583179964</v>
       </c>
       <c r="AB9">
-        <v>0.11963016355478689</v>
+        <v>0.1196301635547869</v>
       </c>
       <c r="AC9">
         <v>0.1189867034978988</v>
@@ -1503,25 +1487,25 @@
         <v>0.1174986454158197</v>
       </c>
       <c r="AG9">
-        <v>0.12699216664313351</v>
+        <v>0.1269921666431335</v>
       </c>
       <c r="AH9">
-        <v>0.13582713163003129</v>
+        <v>0.1358271316300313</v>
       </c>
       <c r="AI9">
-        <v>0.13266798039168681</v>
+        <v>0.1326679803916868</v>
       </c>
       <c r="AJ9">
-        <v>0.13808518214591481</v>
+        <v>0.1380851821459148</v>
       </c>
       <c r="AK9">
-        <v>0.14177673754821299</v>
+        <v>0.141776737548213</v>
       </c>
       <c r="AL9">
-        <v>0.13795781101733989</v>
+        <v>0.1379578110173399</v>
       </c>
       <c r="AM9">
-        <v>0.13924882153485921</v>
+        <v>0.1392488215348592</v>
       </c>
       <c r="AN9">
         <v>0.135065024170822</v>
@@ -1530,117 +1514,117 @@
         <v>0.1333917780144824</v>
       </c>
       <c r="AP9">
-        <v>0.14044874777137811</v>
+        <v>0.1404487477713781</v>
       </c>
       <c r="AQ9">
         <v>0.1441594039013184</v>
       </c>
       <c r="AR9">
-        <v>0.15291437760387519</v>
+        <v>0.1529143776038752</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M10">
-        <v>8.8699309247544947E-2</v>
+        <v>0.08869930924754495</v>
       </c>
       <c r="N10">
-        <v>8.9695489573451775E-2</v>
+        <v>0.08969548957345178</v>
       </c>
       <c r="O10">
-        <v>8.9589668231710898E-2</v>
+        <v>0.0895896682317109</v>
       </c>
       <c r="P10">
-        <v>9.0027450745577553E-2</v>
+        <v>0.09002745074557755</v>
       </c>
       <c r="Q10">
-        <v>9.0877718076103883E-2</v>
+        <v>0.09087771807610388</v>
       </c>
       <c r="R10">
-        <v>8.7682395693579551E-2</v>
+        <v>0.08768239569357955</v>
       </c>
       <c r="S10">
-        <v>8.821208519422187E-2</v>
+        <v>0.08821208519422187</v>
       </c>
       <c r="T10">
-        <v>8.7804147148418901E-2</v>
+        <v>0.0878041471484189</v>
       </c>
       <c r="U10">
-        <v>8.8123554587871938E-2</v>
+        <v>0.08812355458787194</v>
       </c>
       <c r="V10">
-        <v>8.8513946824049269E-2</v>
+        <v>0.08851394682404927</v>
       </c>
       <c r="W10">
-        <v>8.9067117544158456E-2</v>
+        <v>0.08906711754415846</v>
       </c>
       <c r="X10">
-        <v>8.8180103132121809E-2</v>
+        <v>0.08818010313212181</v>
       </c>
       <c r="Y10">
-        <v>8.7616170460365503E-2</v>
+        <v>0.0876161704603655</v>
       </c>
       <c r="Z10">
-        <v>8.6912670123734562E-2</v>
+        <v>0.08691267012373456</v>
       </c>
       <c r="AA10">
-        <v>8.6714721613049967E-2</v>
+        <v>0.08671472161304997</v>
       </c>
       <c r="AB10">
-        <v>8.6989680942297018E-2</v>
+        <v>0.08698968094229702</v>
       </c>
       <c r="AC10">
-        <v>8.7113417253762204E-2</v>
+        <v>0.0871134172537622</v>
       </c>
       <c r="AD10">
-        <v>8.690637074147646E-2</v>
+        <v>0.08690637074147646</v>
       </c>
       <c r="AE10">
-        <v>8.7049445142379056E-2</v>
+        <v>0.08704944514237906</v>
       </c>
       <c r="AF10">
-        <v>8.7249387334897816E-2</v>
+        <v>0.08724938733489782</v>
       </c>
       <c r="AG10">
-        <v>8.6416464009799673E-2</v>
+        <v>0.08641646400979967</v>
       </c>
       <c r="AH10">
-        <v>8.5476089204948452E-2</v>
+        <v>0.08547608920494845</v>
       </c>
       <c r="AI10">
-        <v>8.5814778080625584E-2</v>
+        <v>0.08581477808062558</v>
       </c>
       <c r="AJ10">
-        <v>8.5284994563635613E-2</v>
+        <v>0.08528499456363561</v>
       </c>
       <c r="AK10">
-        <v>8.5160934501616603E-2</v>
+        <v>0.0851609345016166</v>
       </c>
       <c r="AL10">
-        <v>8.5544257939595372E-2</v>
+        <v>0.08554425793959537</v>
       </c>
       <c r="AM10">
-        <v>8.5416700383280364E-2</v>
+        <v>0.08541670038328036</v>
       </c>
       <c r="AN10">
-        <v>8.586907571736678E-2</v>
+        <v>0.08586907571736678</v>
       </c>
       <c r="AO10">
-        <v>8.6137452357280597E-2</v>
+        <v>0.0861374523572806</v>
       </c>
       <c r="AP10">
-        <v>8.5521869852075494E-2</v>
+        <v>0.08552186985207549</v>
       </c>
       <c r="AQ10">
-        <v>8.5141692614476752E-2</v>
+        <v>0.08514169261447675</v>
       </c>
       <c r="AR10">
-        <v>8.4211911659925628E-2</v>
+        <v>0.08421191165992563</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>